--- a/data/filter measure/filter_1_mid_coil.xlsx
+++ b/data/filter measure/filter_1_mid_coil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willp\Downloads\A2-Radiation_Laws\data\filter measure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA4EF7B-9560-40C4-BD17-A37E540AF1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86412BD2-0114-424D-96EA-F8D33463303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EE99F565-3439-406A-9445-7DA60DD50BC7}"/>
   </bookViews>
